--- a/biology/Biochimie/Felix_Hoppe-Seyler/Felix_Hoppe-Seyler.xlsx
+++ b/biology/Biochimie/Felix_Hoppe-Seyler/Felix_Hoppe-Seyler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Felix Immanuel Hoppe-Seyler, né le 26 décembre 1825 à Freyburg-an-der-Unstrut et mort le 10 août 1895 à Wasserburg (Bodensee), est un chimiste et physiologiste allemand. Il est l'un des fondateurs de la biochimie et le précurseur de la biologie moléculaire.
 </t>
@@ -511,9 +523,11 @@
           <t>Contributions scientifiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il  étudie de nombreux fluides corporels ou milieux biologiques: le sang, l’hémoglobine, le pus, la bile, le lait et l'urine. Hoppe-Seyler remarque le premier les deux bandes bien séparées du spectre d'absorption du pigment rouge du sang qu'il nomme “Haemoglobin”. Il reconnaît dans la fixation de l’oxygène sur les érythrocytes une des fonctions de l’hémoglobine, qui forme ainsi l’oxyhémoglobine. Il démontre que l'affinité de liaison de l'hémoglobine est plus grande pour le monoxyde de carbone que pour l'oxygène, parallèlement à Claude Bernard[1]. Il procède à la cristallisation de l’hémoglobine et confirme la présence de fer. Il découvre la méthémoglobine. Il est le premier à signaler la présence de cholestérol dans le sang en 1866.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il  étudie de nombreux fluides corporels ou milieux biologiques: le sang, l’hémoglobine, le pus, la bile, le lait et l'urine. Hoppe-Seyler remarque le premier les deux bandes bien séparées du spectre d'absorption du pigment rouge du sang qu'il nomme “Haemoglobin”. Il reconnaît dans la fixation de l’oxygène sur les érythrocytes une des fonctions de l’hémoglobine, qui forme ainsi l’oxyhémoglobine. Il démontre que l'affinité de liaison de l'hémoglobine est plus grande pour le monoxyde de carbone que pour l'oxygène, parallèlement à Claude Bernard. Il procède à la cristallisation de l’hémoglobine et confirme la présence de fer. Il découvre la méthémoglobine. Il est le premier à signaler la présence de cholestérol dans le sang en 1866.
 Il introduit de nouvelles méthodes d'analyse physico-chimique et pose les bases physio-pathologiques des maladies respiratoires.
 Hoppe-Seyler s'intéresse au cycle de la chlorophylle, et on lui attribue la séparation de différentes protéines (qu’il appelle protéides). Il isole la lécithine et détermine sa formule chimique brute. En 1877, il est l'un des fondateurs du Zeitschrift für Physiologische Chemie (de) (« Journal de Chimie Physiologique »), et en est le premier rédacteur en chef jusqu'à sa mort en 1895. Son travail est poursuivi par Paul Ehrlich comme par ses collaborateurs et par ses élèves : Friedrich Miescher (1844–1895) et Albrecht Kossel (1853–1927), lauréat du Prix Nobel de physiologie ou médecine, en 1910. Leurs travaux permettent des avancées considérables en chimie organique.
 </t>
@@ -544,7 +558,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Ueber die Quellen der Lebenskräfte, C. Habel (Berlin), 1871, in-8° , 35 p.
 (de) Spectral analysis, C. Habel (Berlin), 1872, in-8° , 35 p., pl. en coul.
